--- a/DATA_goal/Junction_Flooding_112.xlsx
+++ b/DATA_goal/Junction_Flooding_112.xlsx
@@ -473,7 +473,7 @@
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>41544.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.91</v>
+        <v>1.69</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>36.01</v>
+        <v>3.6</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>28.14</v>
+        <v>2.81</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.31</v>
+        <v>1.33</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>40.94</v>
+        <v>4.09</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.48</v>
+        <v>2.05</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.16</v>
+        <v>1.42</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.68</v>
+        <v>1.47</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.25</v>
+        <v>0.42</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.36</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>194.07</v>
+        <v>19.41</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>36.74</v>
+        <v>3.67</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.94</v>
+        <v>2.39</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.13</v>
+        <v>1.21</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.16</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.93</v>
+        <v>2.09</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.79</v>
+        <v>1.08</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.93</v>
+        <v>1.49</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>36.63</v>
+        <v>3.66</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.58</v>
+        <v>0.66</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41544.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.9</v>
+        <v>0.99</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.76</v>
+        <v>0.68</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.37</v>
+        <v>2.14</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.69</v>
+        <v>1.67</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>31.32</v>
+        <v>3.13</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.98</v>
+        <v>1.2</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.05</v>
+        <v>0.5</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.28</v>
+        <v>0.73</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.74</v>
+        <v>0.77</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.81</v>
+        <v>1.08</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>110.57</v>
+        <v>11.06</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>21.75</v>
+        <v>2.18</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.15</v>
+        <v>0.71</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>14.19</v>
+        <v>1.42</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.73</v>
+        <v>0.57</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.82</v>
+        <v>0.68</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.93</v>
+        <v>0.89</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>28.87</v>
+        <v>2.89</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41544.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.55</v>
+        <v>0.55</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.28</v>
+        <v>1.73</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.58</v>
+        <v>1.36</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>25.45</v>
+        <v>2.54</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.93</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.22</v>
+        <v>0.72</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.52</v>
+        <v>0.55</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V4" s="4" t="n">
         <v>0.58</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>87.67</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>5.76</v>
-      </c>
       <c r="W4" s="4" t="n">
-        <v>11.47</v>
+        <v>1.15</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.95</v>
+        <v>0.6</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.62</v>
+        <v>0.46</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.25</v>
+        <v>0.72</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.29</v>
+        <v>2.33</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41544.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.65</v>
+        <v>0.77</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.7</v>
+        <v>0.37</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41544.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>10.22</v>
+        <v>1.02</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>3.7</v>
+        <v>0.37</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="N6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF6" s="4" t="n">
         <v>1.18</v>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AE6" s="4" t="n">
+      <c r="AG6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AH6" s="4" t="n">
         <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.25</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41544.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>15.87</v>
+        <v>1.59</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>12.73</v>
+        <v>1.27</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5.75</v>
+        <v>0.57</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>20.65</v>
+        <v>2.06</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>8.84</v>
+        <v>0.88</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.85</v>
+        <v>0.39</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>6.7</v>
+        <v>0.67</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5.71</v>
+        <v>0.57</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>79.63</v>
+        <v>7.96</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>15.91</v>
+        <v>1.59</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>5.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>4.92</v>
+        <v>0.49</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>18.67</v>
+        <v>1.87</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>6.59</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41544.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Q8" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>19.43</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>15.72</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>26.39</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="P8" s="4" t="n">
+      <c r="R8" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T8" s="4" t="n">
         <v>9.91</v>
       </c>
-      <c r="Q8" s="4" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>99.09999999999999</v>
-      </c>
       <c r="U8" s="4" t="n">
-        <v>19.53</v>
+        <v>1.95</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>6.45</v>
+        <v>0.65</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>13.05</v>
+        <v>1.31</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>6.85</v>
+        <v>0.68</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>5.08</v>
+        <v>0.51</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>24</v>
+        <v>2.4</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41544.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>17.68</v>
+        <v>1.77</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>38.45</v>
+        <v>3.85</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>31.49</v>
+        <v>3.15</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>13.91</v>
+        <v>1.39</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>51.54</v>
+        <v>5.15</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>21.41</v>
+        <v>2.14</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>14.13</v>
+        <v>1.41</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>15.43</v>
+        <v>1.54</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>16.3</v>
+        <v>1.63</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>19.71</v>
+        <v>1.97</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>11.61</v>
+        <v>1.16</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>203.26</v>
+        <v>20.33</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>38.63</v>
+        <v>3.86</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>26.02</v>
+        <v>2.6</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>13.66</v>
+        <v>1.37</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>25.47</v>
+        <v>2.55</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>16.22</v>
+        <v>1.62</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>46.8</v>
+        <v>4.68</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>15.97</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41544.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>9.9</v>
+        <v>0.99</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AB10" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>21.52</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>17.53</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>32.82</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>110.57</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>21.76</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>14.61</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>5.6</v>
-      </c>
       <c r="AC10" s="4" t="n">
-        <v>6.59</v>
+        <v>0.66</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>30.04</v>
+        <v>3</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_112.xlsx
+++ b/DATA_goal/Junction_Flooding_112.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41544.34027777778</v>
+        <v>44793.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.81</v>
+        <v>2.51</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.09</v>
+        <v>3.64</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>17.57</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>1.84</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>2.09</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.66</v>
+        <v>3.27</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41544.34722222222</v>
+        <v>44793.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.99</v>
+        <v>2.21</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.68</v>
+        <v>1.59</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.14</v>
+        <v>4.79</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.67</v>
+        <v>3.86</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.78</v>
+        <v>1.73</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.13</v>
+        <v>6.51</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.2</v>
+        <v>2.68</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.5</v>
+        <v>1.17</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.73</v>
+        <v>1.72</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.85</v>
+        <v>1.92</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.89</v>
+        <v>2.03</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.77</v>
+        <v>1.73</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.08</v>
+        <v>2.44</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.48</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>11.06</v>
+        <v>25.59</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.18</v>
+        <v>4.83</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.71</v>
+        <v>1.6</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.42</v>
+        <v>3.22</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.73</v>
+        <v>1.71</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.51</v>
+        <v>3.19</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.63</v>
+        <v>1.41</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.57</v>
+        <v>1.26</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.68</v>
+        <v>1.49</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.89</v>
+        <v>2.02</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.89</v>
+        <v>5.95</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.89</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41544.35416666666</v>
+        <v>44793.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.73</v>
+        <v>1.46</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.74</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>8.77</v>
+        <v>7.28</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.15</v>
+        <v>0.98</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
       <c r="AB4" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AC4" s="4" t="n">
         <v>0.46</v>
       </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.55</v>
-      </c>
       <c r="AD4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41544.36111111111</v>
+        <v>44793.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.12</v>
+        <v>2.45</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.06</v>
+        <v>1.81</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.27</v>
+        <v>5.33</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.17</v>
+        <v>4.35</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>0.77</v>
+        <v>28.45</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.31</v>
+        <v>5.35</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.09</v>
+        <v>1.77</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.2</v>
+        <v>3.6</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.09</v>
+        <v>1.9</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.28</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.51</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.08</v>
+        <v>1.56</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.08</v>
+        <v>1.39</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.11</v>
+        <v>2.25</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>6.48</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.99</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.11</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41544.36805555555</v>
+        <v>44793.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.47</v>
+        <v>0.96</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.46</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.02</v>
+        <v>2.07</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.8</v>
+        <v>1.23</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.37</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1.32</v>
+        <v>12.28</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.57</v>
+        <v>1.16</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.24</v>
+        <v>0.61</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.41</v>
+        <v>0.83</v>
       </c>
       <c r="M6" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.43</v>
       </c>
-      <c r="N6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF6" s="4" t="n">
-        <v>1.18</v>
+        <v>12.04</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41544.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41544.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
         <v>0.89</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41544.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>20.33</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41544.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41544.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>35.95</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>29.48</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>49.19</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>14.43</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>15.25</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>189.53</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>36.13</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>24.35</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>24.07</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>14.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_112.xlsx
+++ b/DATA_goal/Junction_Flooding_112.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44793.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.01</v>
+        <v>10.11</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.27</v>
+        <v>32.73</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.51</v>
+        <v>25.13</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.94</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.64</v>
+        <v>36.36</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.86</v>
+        <v>18.62</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.12</v>
+        <v>11.18</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.61</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.2</v>
+        <v>12.03</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.61</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.57</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>17.57</v>
+        <v>175.75</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.34</v>
+        <v>33.36</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.16</v>
+        <v>21.6</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.54</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.84</v>
+        <v>18.42</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.81</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.61</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.63</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.27</v>
+        <v>32.66</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44793.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.21</v>
+        <v>22.1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.91</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.97</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.79</v>
+        <v>47.94</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.86</v>
+        <v>38.55</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.27</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.51</v>
+        <v>65.06</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.68</v>
+        <v>26.76</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.67</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.72</v>
+        <v>17.18</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.92</v>
+        <v>19.18</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.03</v>
+        <v>20.28</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.29</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.44</v>
+        <v>24.45</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.81</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>25.59</v>
+        <v>255.92</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.83</v>
+        <v>48.35</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.6</v>
+        <v>15.96</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.22</v>
+        <v>32.19</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.71</v>
+        <v>17.1</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.19</v>
+        <v>31.87</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.1</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.6</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.86</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.02</v>
+        <v>20.17</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.95</v>
+        <v>59.47</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.84</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44793.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.58</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.29</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>7.28</v>
+        <v>72.83</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.5</v>
+        <v>14.96</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.77</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.22</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.65</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.38</v>
+        <v>23.78</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.58</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44793.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.45</v>
+        <v>24.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.07</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.33</v>
+        <v>53.27</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.35</v>
+        <v>43.45</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.19</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.13</v>
+        <v>71.34</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.97</v>
+        <v>29.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.95</v>
+        <v>19.47</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.26</v>
+        <v>22.63</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.73</v>
+        <v>27.27</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.17</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>28.45</v>
+        <v>284.53</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.35</v>
+        <v>53.54</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.6</v>
+        <v>35.98</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.9</v>
+        <v>19.03</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.51</v>
+        <v>35.07</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.85</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.25</v>
+        <v>22.46</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.48</v>
+        <v>64.76000000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.21</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_112.xlsx
+++ b/DATA_goal/Junction_Flooding_112.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44793.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>15.37</v>
+        <v>15.374</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.11</v>
+        <v>10.112</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.72</v>
+        <v>3.717</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.73</v>
+        <v>32.732</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>25.13</v>
+        <v>25.126</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.94</v>
+        <v>11.943</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>36.36</v>
+        <v>36.363</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.62</v>
+        <v>18.615</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.56</v>
+        <v>7.558</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.18</v>
+        <v>11.183</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.93</v>
+        <v>12.932</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.61</v>
+        <v>13.607</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>3.86</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.03</v>
+        <v>12.031</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>16.61</v>
+        <v>16.608</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>10.57</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.12</v>
+        <v>3.118</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.76</v>
+        <v>1.764</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>175.75</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>33.36</v>
+        <v>33.355</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.1</v>
+        <v>11.105</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>21.6</v>
+        <v>21.604</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.54</v>
+        <v>11.537</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.93</v>
+        <v>2.926</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.42</v>
+        <v>18.421</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.81</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>8.874000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.61</v>
+        <v>10.611</v>
       </c>
       <c r="AD2" s="4" t="n">
         <v>13.63</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>3.312</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>32.66</v>
+        <v>32.661</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.89</v>
+        <v>5.894</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.88</v>
+        <v>13.883</v>
       </c>
     </row>
     <row r="3">
@@ -762,49 +762,49 @@
         <v>22.1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.91</v>
+        <v>15.912</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.97</v>
+        <v>1.967</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>47.94</v>
+        <v>47.939</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>38.55</v>
+        <v>38.551</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.27</v>
+        <v>17.265</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>65.06</v>
+        <v>65.059</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26.76</v>
+        <v>26.759</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.67</v>
+        <v>11.673</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.18</v>
+        <v>17.175</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.18</v>
+        <v>19.178</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.28</v>
+        <v>20.278</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.56</v>
+        <v>5.555</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>17.29</v>
+        <v>17.294</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>24.45</v>
+        <v>24.445</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.81</v>
+        <v>14.807</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>1.52</v>
@@ -813,25 +813,25 @@
         <v>1.19</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>255.92</v>
+        <v>255.923</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>48.35</v>
+        <v>48.347</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.96</v>
+        <v>15.963</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>32.19</v>
+        <v>32.192</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.1</v>
+        <v>17.096</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>2.91</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>31.87</v>
+        <v>31.869</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>14.1</v>
@@ -840,22 +840,22 @@
         <v>12.6</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.86</v>
+        <v>14.865</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.17</v>
+        <v>20.166</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>59.47</v>
+        <v>59.468</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>8.84</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.96</v>
+        <v>19.958</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44793.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.73</v>
+        <v>6.726</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.6</v>
+        <v>4.599</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.984</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.58</v>
+        <v>14.575</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.29</v>
+        <v>11.288</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.19</v>
+        <v>5.188</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>25.58</v>
+        <v>25.577</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>8.144</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.47</v>
+        <v>3.472</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.91</v>
+        <v>4.907</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.83</v>
+        <v>5.827</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>6.18</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.7</v>
+        <v>1.697</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.26</v>
+        <v>5.263</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.39</v>
+        <v>7.391</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>4.72</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.927</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.523</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>72.83</v>
+        <v>72.82899999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>14.96</v>
+        <v>14.961</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.86</v>
+        <v>4.858</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>9.77</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.22</v>
+        <v>5.222</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.12</v>
+        <v>1.119</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.65</v>
+        <v>11.647</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.29</v>
+        <v>4.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.94</v>
+        <v>3.942</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.64</v>
+        <v>4.643</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.12</v>
+        <v>6.121</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.78</v>
+        <v>23.782</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.58</v>
+        <v>2.582</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.08</v>
+        <v>6.076</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>22.13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44793.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.89</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_112.xlsx
+++ b/DATA_goal/Junction_Flooding_112.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,8 +468,8 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,103 +967,207 @@
         <v>44793.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.5</v>
+        <v>24.502</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>18.07</v>
+        <v>18.069</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.37</v>
+        <v>1.369</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>53.27</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>43.45</v>
+        <v>43.455</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>19.19</v>
+        <v>19.191</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>71.34</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.67</v>
+        <v>29.668</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.16</v>
+        <v>13.161</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.47</v>
+        <v>19.473</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>21.37</v>
+        <v>21.367</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.63</v>
+        <v>22.633</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.16</v>
+        <v>6.158</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>19.17</v>
+        <v>19.174</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.27</v>
+        <v>27.267</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>16.17</v>
+        <v>16.167</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.856</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.952</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>284.53</v>
+        <v>284.531</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>53.54</v>
+        <v>53.544</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.7</v>
+        <v>17.698</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>35.98</v>
+        <v>35.982</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>19.03</v>
+        <v>19.035</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.84</v>
+        <v>2.836</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>35.07</v>
+        <v>35.067</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.63</v>
+        <v>15.633</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.85</v>
+        <v>13.852</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.3</v>
+        <v>16.301</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.46</v>
+        <v>22.459</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>64.76000000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>9.946999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>22.13</v>
+        <v>22.127</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44793.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_112.xlsx
+++ b/DATA_goal/Junction_Flooding_112.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,8 +468,8 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,207 +967,103 @@
         <v>44793.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.502</v>
+        <v>24.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>18.069</v>
+        <v>18.07</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.369</v>
+        <v>1.37</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>53.27</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>43.455</v>
+        <v>43.45</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>19.191</v>
+        <v>19.19</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>71.34</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.668</v>
+        <v>29.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.161</v>
+        <v>13.16</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.473</v>
+        <v>19.47</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>21.367</v>
+        <v>21.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.633</v>
+        <v>22.63</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.158</v>
+        <v>6.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>19.174</v>
+        <v>19.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.267</v>
+        <v>27.27</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>16.167</v>
+        <v>16.17</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.856</v>
+        <v>0.86</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.952</v>
+        <v>0.95</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>284.531</v>
+        <v>284.53</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>53.544</v>
+        <v>53.54</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.698</v>
+        <v>17.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>35.982</v>
+        <v>35.98</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>19.035</v>
+        <v>19.03</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.836</v>
+        <v>2.84</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>35.067</v>
+        <v>35.07</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.633</v>
+        <v>15.63</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.852</v>
+        <v>13.85</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.301</v>
+        <v>16.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.459</v>
+        <v>22.46</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>64.76000000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.946999999999999</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>22.127</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44793.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.89</v>
+        <v>22.13</v>
       </c>
     </row>
   </sheetData>
